--- a/data/trans_camb/P57GLOBAL_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 5,42</t>
+          <t>-7,23; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,31</t>
+          <t>4,85; 15,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -4,09</t>
+          <t>-16,52; -4,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 10,79</t>
+          <t>-4,19; 11,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 20,36</t>
+          <t>6,52; 20,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -6,19</t>
+          <t>-20,24; -6,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,62</t>
+          <t>-4,42; 5,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 16,37</t>
+          <t>7,25; 16,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -7,15</t>
+          <t>-16,18; -7,64</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 8,5</t>
+          <t>-10,0; 7,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 25,07</t>
+          <t>6,77; 23,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,95; -6,28</t>
+          <t>-23,43; -6,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 17,31</t>
+          <t>-5,78; 19,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 32,24</t>
+          <t>9,39; 33,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -9,62</t>
+          <t>-28,27; -10,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,54</t>
+          <t>-6,25; 8,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 25,0</t>
+          <t>10,25; 24,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -10,83</t>
+          <t>-23,05; -11,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 10,17</t>
+          <t>-3,69; 10,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 19,59</t>
+          <t>5,86; 19,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 6,33</t>
+          <t>-7,67; 6,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 12,41</t>
+          <t>-1,9; 12,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 19,26</t>
+          <t>5,14; 18,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 2,54</t>
+          <t>-9,99; 3,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,45</t>
+          <t>-0,67; 8,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 17,19</t>
+          <t>7,55; 17,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 3,52</t>
+          <t>-7,14; 2,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 16,79</t>
+          <t>-5,52; 17,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 32,25</t>
+          <t>8,57; 32,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 10,57</t>
+          <t>-11,29; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 19,31</t>
+          <t>-2,66; 18,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 29,68</t>
+          <t>7,26; 29,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 3,98</t>
+          <t>-13,96; 5,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 15,29</t>
+          <t>-0,99; 13,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 27,29</t>
+          <t>10,91; 27,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 5,54</t>
+          <t>-10,44; 3,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -1,19</t>
+          <t>-11,68; -1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,53</t>
+          <t>6,5; 16,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-58,81; -7,75</t>
+          <t>-58,11; -8,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 10,92</t>
+          <t>-8,4; 10,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 25,04</t>
+          <t>7,85; 24,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 6,39</t>
+          <t>-12,65; 5,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 0,57</t>
+          <t>-9,17; -0,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 17,16</t>
+          <t>8,64; 17,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-53,27; -6,23</t>
+          <t>-51,24; -6,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -1,64</t>
+          <t>-15,2; -2,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,06; 23,19</t>
+          <t>8,2; 22,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,09; -10,47</t>
+          <t>-77,71; -11,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 16,63</t>
+          <t>-10,96; 14,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 38,37</t>
+          <t>9,87; 38,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 9,49</t>
+          <t>-16,71; 8,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 0,68</t>
+          <t>-12,04; -0,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 24,35</t>
+          <t>11,28; 24,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,24; -8,43</t>
+          <t>-71,49; -8,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,33</t>
+          <t>-6,57; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 12,48</t>
+          <t>5,69; 12,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -3,72</t>
+          <t>-11,84; -3,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 9,76</t>
+          <t>0,39; 9,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,42</t>
+          <t>7,27; 15,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,82</t>
+          <t>-15,76; -6,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,47</t>
+          <t>-2,18; 3,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 12,97</t>
+          <t>7,57; 12,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -6,09</t>
+          <t>-11,99; -5,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,91</t>
+          <t>-8,86; 1,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,63; 17,67</t>
+          <t>7,52; 18,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -5,2</t>
+          <t>-15,97; -4,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 13,51</t>
+          <t>0,43; 13,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,26; 21,44</t>
+          <t>9,51; 21,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,63; -9,39</t>
+          <t>-20,6; -9,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,81</t>
+          <t>-2,93; 4,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,38; 18,05</t>
+          <t>10,05; 18,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,01; -8,43</t>
+          <t>-16,06; -8,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 7,18</t>
+          <t>-5,77; 7,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,14; 17,89</t>
+          <t>5,57; 17,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 4,18</t>
+          <t>-9,36; 4,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 2,1</t>
+          <t>-6,74; 2,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,84</t>
+          <t>3,3; 11,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-34,65; -7,94</t>
+          <t>-33,4; -8,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 2,33</t>
+          <t>-5,25; 2,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,11</t>
+          <t>5,6; 12,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-25,57; -5,91</t>
+          <t>-22,56; -5,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 10,6</t>
+          <t>-7,57; 10,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,04; 26,82</t>
+          <t>7,38; 25,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 6,2</t>
+          <t>-12,45; 6,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 2,84</t>
+          <t>-8,18; 2,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,15; 15,5</t>
+          <t>4,01; 14,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,75; -10,22</t>
+          <t>-41,52; -10,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 3,1</t>
+          <t>-6,66; 2,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,74; 16,22</t>
+          <t>7,12; 16,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,47; -7,84</t>
+          <t>-29,6; -7,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 9,22</t>
+          <t>-7,17; 8,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>12,04; 25,75</t>
+          <t>11,15; 26,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-26,38; -2,8</t>
+          <t>-26,43; -2,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,54</t>
+          <t>-0,9; 6,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,11; 18,01</t>
+          <t>10,83; 17,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,65</t>
+          <t>-9,97; -1,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,95</t>
+          <t>-0,83; 5,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>11,99; 18,07</t>
+          <t>11,73; 18,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -4,06</t>
+          <t>-13,04; -3,92</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 16,47</t>
+          <t>-11,27; 15,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>18,93; 46,53</t>
+          <t>17,37; 47,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -4,95</t>
+          <t>-42,71; -4,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,48</t>
+          <t>-1,33; 9,69</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,42; 26,47</t>
+          <t>15,03; 26,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -2,27</t>
+          <t>-13,83; -1,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 8,95</t>
+          <t>-1,1; 8,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>17,04; 27,06</t>
+          <t>16,81; 27,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -6,08</t>
+          <t>-18,8; -5,99</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,79</t>
+          <t>-3,82; 0,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,54</t>
+          <t>9,48; 13,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -6,47</t>
+          <t>-25,6; -6,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,37</t>
+          <t>0,8; 5,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,55</t>
+          <t>10,71; 14,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -7,2</t>
+          <t>-15,28; -7,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,35</t>
+          <t>-0,75; 2,52</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,5; 13,35</t>
+          <t>10,57; 13,46</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -7,84</t>
+          <t>-20,31; -7,95</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 1,14</t>
+          <t>-5,3; 1,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>12,87; 19,6</t>
+          <t>13,23; 20,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,28; -9,25</t>
+          <t>-36,59; -9,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,62</t>
+          <t>1,08; 7,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>14,37; 20,48</t>
+          <t>14,63; 20,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -10,1</t>
+          <t>-20,93; -10,0</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,34</t>
+          <t>-1,05; 3,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>14,52; 18,83</t>
+          <t>14,67; 19,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-26,93; -11,03</t>
+          <t>-28,42; -11,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57GLOBAL_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
